--- a/biology/Histoire de la zoologie et de la botanique/Johannes_Bodaeus_van_Stapel/Johannes_Bodaeus_van_Stapel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johannes_Bodaeus_van_Stapel/Johannes_Bodaeus_van_Stapel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johannes Bodaeus van Stapel (en latin Ioannes Bodaeus a Stapel, en italien Giovanni Bodeo da Stapel ou Giovanni Bodeo da Stapelio, en français Jean/Johannes Bodaeus de Stapel ou à Stapel), né en 1602 à Amsterdam, dans les Provinces-Unies, et mort en 1636 dans la même ville[1],[2],[3], est un botaniste et médecin néerlandais[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johannes Bodaeus van Stapel (en latin Ioannes Bodaeus a Stapel, en italien Giovanni Bodeo da Stapel ou Giovanni Bodeo da Stapelio, en français Jean/Johannes Bodaeus de Stapel ou à Stapel), né en 1602 à Amsterdam, dans les Provinces-Unies, et mort en 1636 dans la même ville est un botaniste et médecin néerlandais,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giovanni Bodeo da Stapelio est né à Amsterdam vers le debut du XVIIe siècle. Son père, le médecin Engelberto Stapel l'envoya étudier à Leyde où naît son intérêt pour la botanique[2]. Au cours de ses études médicales à Leyde, il a été formé à la botanique par Adolphe Vorstius (1597-1663).
-Il est connu pour son travail sur de la version latine de l'ouvrage Historia plantarum de Théophraste, terminé avant sa mort avenue en 1636 et publiée à Amsterdam en 1644 à titre posthume par son père, une référence incontournable pour les botanistes occidentaux de l'époque. La traduction latine est celle de Théodore Gaza[3]. Cette version latine compte 1 200 pages (plus 50 illustrations en noir et blanc, hors texte). Les dessins des plantes et de leurs parties sont très schématiques mais très fidèles à la réalité. Au fil des commentaires, Stapelio en profite pour illustrer de façon presque encyclopédique les diverses espèces botaniques et leurs applications[2]. Son collègue, l'humaniste Gaspard van Baerle, lui a consacré un poème en latin. Carl von Linné a nommé, en son honneur, le genre Stapelia de la famille des Apocynacées[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giovanni Bodeo da Stapelio est né à Amsterdam vers le debut du XVIIe siècle. Son père, le médecin Engelberto Stapel l'envoya étudier à Leyde où naît son intérêt pour la botanique. Au cours de ses études médicales à Leyde, il a été formé à la botanique par Adolphe Vorstius (1597-1663).
+Il est connu pour son travail sur de la version latine de l'ouvrage Historia plantarum de Théophraste, terminé avant sa mort avenue en 1636 et publiée à Amsterdam en 1644 à titre posthume par son père, une référence incontournable pour les botanistes occidentaux de l'époque. La traduction latine est celle de Théodore Gaza. Cette version latine compte 1 200 pages (plus 50 illustrations en noir et blanc, hors texte). Les dessins des plantes et de leurs parties sont très schématiques mais très fidèles à la réalité. Au fil des commentaires, Stapelio en profite pour illustrer de façon presque encyclopédique les diverses espèces botaniques et leurs applications. Son collègue, l'humaniste Gaspard van Baerle, lui a consacré un poème en latin. Carl von Linné a nommé, en son honneur, le genre Stapelia de la famille des Apocynacées,.
 </t>
         </is>
       </c>
